--- a/model_material/Viola_Material_U_Values.xlsx
+++ b/model_material/Viola_Material_U_Values.xlsx
@@ -8789,9 +8789,9 @@
   </sheetPr>
   <dimension ref="A1:X378"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G20" sqref="G20"/>
+      <selection pane="topRight" activeCell="A22" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
